--- a/working_data/function_3_data.xlsx
+++ b/working_data/function_3_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>X_1</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,6 +1044,40 @@
         <v>6</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.085427</v>
+      </c>
+      <c r="D39">
+        <v>-0.1009078344957044</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.170854</v>
+      </c>
+      <c r="D40">
+        <v>-0.1825362898147634</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_3_data.xlsx
+++ b/working_data/function_3_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>X_1</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,6 +1078,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.256281</v>
+      </c>
+      <c r="D41">
+        <v>-0.1729463799634047</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_3_data.xlsx
+++ b/working_data/function_3_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
   <si>
     <t>X_1</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1095,6 +1095,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.575295</v>
+      </c>
+      <c r="B42">
+        <v>0.32235</v>
+      </c>
+      <c r="C42">
+        <v>0.533675</v>
+      </c>
+      <c r="D42">
+        <v>-0.03498211073673849</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_3_data.xlsx
+++ b/working_data/function_3_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
   <si>
     <t>X_1</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,6 +1112,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0.575546</v>
+      </c>
+      <c r="B43">
+        <v>0.322602</v>
+      </c>
+      <c r="C43">
+        <v>0.533926</v>
+      </c>
+      <c r="D43">
+        <v>-0.03224070408136006</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
